--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="37834" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
